--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Documents\GitHub\Modeling-the-economic-outcomes-of-local-government-reform-in-Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED4B433-20FF-4916-BBFA-D51EEEFDCEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33DD0D-4A84-46EC-828C-369CA124958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E6A6AED-17BF-4BEB-946E-02723E72066E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -54,9 +54,6 @@
     <t>https://www.data-in.ru/data-catalog/datasets/159/</t>
   </si>
   <si>
-    <t>База данных показателей муниципальных образований России за 2006 – 2020 гг.</t>
-  </si>
-  <si>
     <t>https://www.data-in.ru/data-catalog/datasets/115/</t>
   </si>
   <si>
@@ -70,6 +67,18 @@
   </si>
   <si>
     <t>https://rosstat.gov.ru/classification</t>
+  </si>
+  <si>
+    <t>База данных показателей муниципальных образований России за 2006 – 2018 гг.</t>
+  </si>
+  <si>
+    <t>Коды ОКТМО российских регионов</t>
+  </si>
+  <si>
+    <t>raw_data/BDMO_01012018</t>
+  </si>
+  <si>
+    <t>raw_data/regions_oktmo.xlsx</t>
   </si>
 </sst>
 </file>
@@ -442,7 +451,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,27 +483,35 @@
     </row>
     <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data_sources.xlsx
+++ b/data_sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\Documents\GitHub\Modeling-the-economic-outcomes-of-local-government-reform-in-Russia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C33DD0D-4A84-46EC-828C-369CA124958C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479E4449-D168-49DC-8323-4AD0352522CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E6A6AED-17BF-4BEB-946E-02723E72066E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>raw_data/regions_oktmo.xlsx</t>
+  </si>
+  <si>
+    <t>https://www.fedstat.ru/indicator/31074</t>
+  </si>
+  <si>
+    <t>ИПЦ на товары и услуги по регионам</t>
+  </si>
+  <si>
+    <t>raw_data/Индексы потребительских цен на товары и услуги (процент)</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36B44D1-2EF1-4AB7-9178-4951253BFD65}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,13 +523,25 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{A2ADCB1E-F1B6-4F79-B0BF-E43DB16E4811}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{6374BBB1-4C5E-442B-BBC7-CDF14BAF52A8}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{13052A6F-4CE8-4309-BA16-32313D8A8D21}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{9CC6600D-04B7-4E03-AE03-026E8600EF79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>